--- a/biology/Botanique/Bromelia_pinguin/Bromelia_pinguin.xlsx
+++ b/biology/Botanique/Bromelia_pinguin/Bromelia_pinguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bromelia pinguin est une espèce de plantes à fleurs de la famille des Bromeliaceae, originaire des régions tropicales d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agallostachys fastuosa (Lindl.) Beer
@@ -551,9 +565,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement présente de l'Amérique centrale au nord de l'Amérique du Sud et à la Caraïbe, notamment au Mexique, au Belize, au Salvador, au Guatemala, au Honduras, au Nicaragua, au Panama, à Cuba, en République dominicaine, en Jamaïque, au Guyana, au Suriname, au Venezuela, en Colombie et en Équateur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement présente de l'Amérique centrale au nord de l'Amérique du Sud et à la Caraïbe, notamment au Mexique, au Belize, au Salvador, au Guatemala, au Honduras, au Nicaragua, au Panama, à Cuba, en République dominicaine, en Jamaïque, au Guyana, au Suriname, au Venezuela, en Colombie et en Équateur.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
